--- a/intervalos_ndt.xlsx
+++ b/intervalos_ndt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsl_atual\simulador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1278D3-DBBF-45EB-86BD-CBC83C950FAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8030D14A-5468-42EB-AAAF-5B0EF476288B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F3419C55-1066-4486-8782-759DF9273BDF}"/>
   </bookViews>
@@ -16,7 +16,9 @@
     <sheet name="5.86 x 6.22" sheetId="1" r:id="rId1"/>
     <sheet name="5.86 x 7.65" sheetId="3" r:id="rId2"/>
     <sheet name="5.86 x 9.22" sheetId="4" r:id="rId3"/>
-    <sheet name="6.22 x 7.65" sheetId="5" r:id="rId4"/>
+    <sheet name="5.86 x 5.86" sheetId="5" r:id="rId4"/>
+    <sheet name="5.86 x 10.98" sheetId="6" r:id="rId5"/>
+    <sheet name="Planilha2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="553">
   <si>
     <t>7-799</t>
   </si>
@@ -1075,6 +1077,627 @@
   </si>
   <si>
     <t>Faixa de Offsets</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>15-17</t>
+  </si>
+  <si>
+    <t>18-20</t>
+  </si>
+  <si>
+    <t>21-23</t>
+  </si>
+  <si>
+    <t>24-26</t>
+  </si>
+  <si>
+    <t>27-29</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>33-35</t>
+  </si>
+  <si>
+    <t>36-38</t>
+  </si>
+  <si>
+    <t>39-41</t>
+  </si>
+  <si>
+    <t>42-44</t>
+  </si>
+  <si>
+    <t>45-47</t>
+  </si>
+  <si>
+    <t>48-50</t>
+  </si>
+  <si>
+    <t>51-53</t>
+  </si>
+  <si>
+    <t>54-56</t>
+  </si>
+  <si>
+    <t>57-59</t>
+  </si>
+  <si>
+    <t>60-62</t>
+  </si>
+  <si>
+    <t>63-65</t>
+  </si>
+  <si>
+    <t>66-68</t>
+  </si>
+  <si>
+    <t>69-71</t>
+  </si>
+  <si>
+    <t>72-74</t>
+  </si>
+  <si>
+    <t>75-77</t>
+  </si>
+  <si>
+    <t>78-80</t>
+  </si>
+  <si>
+    <t>81-83</t>
+  </si>
+  <si>
+    <t>84-86</t>
+  </si>
+  <si>
+    <t>87-89</t>
+  </si>
+  <si>
+    <t>90-92</t>
+  </si>
+  <si>
+    <t>93-95</t>
+  </si>
+  <si>
+    <t>96-98</t>
+  </si>
+  <si>
+    <t>99-101</t>
+  </si>
+  <si>
+    <t>102-104</t>
+  </si>
+  <si>
+    <t>105-107</t>
+  </si>
+  <si>
+    <t>108-110</t>
+  </si>
+  <si>
+    <t>111-113</t>
+  </si>
+  <si>
+    <t>114-116</t>
+  </si>
+  <si>
+    <t>117-119</t>
+  </si>
+  <si>
+    <t>120-122</t>
+  </si>
+  <si>
+    <t>123-125</t>
+  </si>
+  <si>
+    <t>126-128</t>
+  </si>
+  <si>
+    <t>129-131</t>
+  </si>
+  <si>
+    <t>132-134</t>
+  </si>
+  <si>
+    <t>135-137</t>
+  </si>
+  <si>
+    <t>138-140</t>
+  </si>
+  <si>
+    <t>141-143</t>
+  </si>
+  <si>
+    <t>144-146</t>
+  </si>
+  <si>
+    <t>147-149</t>
+  </si>
+  <si>
+    <t>150-152</t>
+  </si>
+  <si>
+    <t>153-155</t>
+  </si>
+  <si>
+    <t>156-158</t>
+  </si>
+  <si>
+    <t>159-161</t>
+  </si>
+  <si>
+    <t>162-164</t>
+  </si>
+  <si>
+    <t>165-167</t>
+  </si>
+  <si>
+    <t>168-170</t>
+  </si>
+  <si>
+    <t>171-173</t>
+  </si>
+  <si>
+    <t>174-176</t>
+  </si>
+  <si>
+    <t>177-179</t>
+  </si>
+  <si>
+    <t>180-182</t>
+  </si>
+  <si>
+    <t>183-185</t>
+  </si>
+  <si>
+    <t>186-188</t>
+  </si>
+  <si>
+    <t>189-191</t>
+  </si>
+  <si>
+    <t>192-194</t>
+  </si>
+  <si>
+    <t>195-197</t>
+  </si>
+  <si>
+    <t>198-200</t>
+  </si>
+  <si>
+    <t>201-203</t>
+  </si>
+  <si>
+    <t>204-206</t>
+  </si>
+  <si>
+    <t>207-209</t>
+  </si>
+  <si>
+    <t>210-212</t>
+  </si>
+  <si>
+    <t>213-215</t>
+  </si>
+  <si>
+    <t>216-218</t>
+  </si>
+  <si>
+    <t>219-221</t>
+  </si>
+  <si>
+    <t>222-224</t>
+  </si>
+  <si>
+    <t>225-227</t>
+  </si>
+  <si>
+    <t>228-230</t>
+  </si>
+  <si>
+    <t>231-233</t>
+  </si>
+  <si>
+    <t>234-236</t>
+  </si>
+  <si>
+    <t>237-239</t>
+  </si>
+  <si>
+    <t>240-242</t>
+  </si>
+  <si>
+    <t>243-245</t>
+  </si>
+  <si>
+    <t>246-248</t>
+  </si>
+  <si>
+    <t>249-251</t>
+  </si>
+  <si>
+    <t>252-254</t>
+  </si>
+  <si>
+    <t>255-257</t>
+  </si>
+  <si>
+    <t>258-260</t>
+  </si>
+  <si>
+    <t>261-263</t>
+  </si>
+  <si>
+    <t>264-266</t>
+  </si>
+  <si>
+    <t>267-269</t>
+  </si>
+  <si>
+    <t>270-272</t>
+  </si>
+  <si>
+    <t>273-275</t>
+  </si>
+  <si>
+    <t>276-278</t>
+  </si>
+  <si>
+    <t>279-281</t>
+  </si>
+  <si>
+    <t>282-284</t>
+  </si>
+  <si>
+    <t>285-287</t>
+  </si>
+  <si>
+    <t>288-290</t>
+  </si>
+  <si>
+    <t>291-293</t>
+  </si>
+  <si>
+    <t>294-296</t>
+  </si>
+  <si>
+    <t>297-299</t>
+  </si>
+  <si>
+    <t>300-302</t>
+  </si>
+  <si>
+    <t>303-305</t>
+  </si>
+  <si>
+    <t>306-305</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>12-14</t>
+  </si>
+  <si>
+    <t>1-267</t>
+  </si>
+  <si>
+    <t>270-536</t>
+  </si>
+  <si>
+    <t>540-808</t>
+  </si>
+  <si>
+    <t>810-1078</t>
+  </si>
+  <si>
+    <t>1080-1349</t>
+  </si>
+  <si>
+    <t>1352-1619</t>
+  </si>
+  <si>
+    <t>1621-1889</t>
+  </si>
+  <si>
+    <t>1890-2159</t>
+  </si>
+  <si>
+    <t>2160-2427</t>
+  </si>
+  <si>
+    <t>2432-2699</t>
+  </si>
+  <si>
+    <t>2701-2968</t>
+  </si>
+  <si>
+    <t>2970-3238</t>
+  </si>
+  <si>
+    <t>3240-3509</t>
+  </si>
+  <si>
+    <t>3512-3779</t>
+  </si>
+  <si>
+    <t>3781-4049</t>
+  </si>
+  <si>
+    <t>4051-4317</t>
+  </si>
+  <si>
+    <t>4322-4589</t>
+  </si>
+  <si>
+    <t>4591-4856</t>
+  </si>
+  <si>
+    <t>4861-5127</t>
+  </si>
+  <si>
+    <t>5130-5399</t>
+  </si>
+  <si>
+    <t>5400-5668</t>
+  </si>
+  <si>
+    <t>5670-5938</t>
+  </si>
+  <si>
+    <t>5941-6208</t>
+  </si>
+  <si>
+    <t>6211-6479</t>
+  </si>
+  <si>
+    <t>6481-6749</t>
+  </si>
+  <si>
+    <t>6750-7017</t>
+  </si>
+  <si>
+    <t>7020-7289</t>
+  </si>
+  <si>
+    <t>7290-7557</t>
+  </si>
+  <si>
+    <t>7562-7828</t>
+  </si>
+  <si>
+    <t>7833-8099</t>
+  </si>
+  <si>
+    <t>8100-8367</t>
+  </si>
+  <si>
+    <t>8371-8639</t>
+  </si>
+  <si>
+    <t>8640-8909</t>
+  </si>
+  <si>
+    <t>8912-9178</t>
+  </si>
+  <si>
+    <t>9182-9449</t>
+  </si>
+  <si>
+    <t>9450-9718</t>
+  </si>
+  <si>
+    <t>9722-9989</t>
+  </si>
+  <si>
+    <t>9990-10259</t>
+  </si>
+  <si>
+    <t>10261-10529</t>
+  </si>
+  <si>
+    <t>10530-10798</t>
+  </si>
+  <si>
+    <t>10802-11069</t>
+  </si>
+  <si>
+    <t>11070-11339</t>
+  </si>
+  <si>
+    <t>11340-11609</t>
+  </si>
+  <si>
+    <t>11611-11879</t>
+  </si>
+  <si>
+    <t>11883-12149</t>
+  </si>
+  <si>
+    <t>12152-12419</t>
+  </si>
+  <si>
+    <t>12421-12688</t>
+  </si>
+  <si>
+    <t>12690-12959</t>
+  </si>
+  <si>
+    <t>12960-13228</t>
+  </si>
+  <si>
+    <t>13231-13496</t>
+  </si>
+  <si>
+    <t>13500-13769</t>
+  </si>
+  <si>
+    <t>13770-14038</t>
+  </si>
+  <si>
+    <t>14042-14309</t>
+  </si>
+  <si>
+    <t>14310-14576</t>
+  </si>
+  <si>
+    <t>14581-14846</t>
+  </si>
+  <si>
+    <t>14850-15119</t>
+  </si>
+  <si>
+    <t>15120-15388</t>
+  </si>
+  <si>
+    <t>15390-15658</t>
+  </si>
+  <si>
+    <t>15663-15929</t>
+  </si>
+  <si>
+    <t>15930-16197</t>
+  </si>
+  <si>
+    <t>16201-16468</t>
+  </si>
+  <si>
+    <t>16471-16739</t>
+  </si>
+  <si>
+    <t>16741-17009</t>
+  </si>
+  <si>
+    <t>17011-17278</t>
+  </si>
+  <si>
+    <t>17280-17549</t>
+  </si>
+  <si>
+    <t>17551-17819</t>
+  </si>
+  <si>
+    <t>17821-18089</t>
+  </si>
+  <si>
+    <t>18091-18358</t>
+  </si>
+  <si>
+    <t>18360-18629</t>
+  </si>
+  <si>
+    <t>18631-18898</t>
+  </si>
+  <si>
+    <t>18902-19169</t>
+  </si>
+  <si>
+    <t>19173-19439</t>
+  </si>
+  <si>
+    <t>19442-19706</t>
+  </si>
+  <si>
+    <t>19710-19979</t>
+  </si>
+  <si>
+    <t>19980-20247</t>
+  </si>
+  <si>
+    <t>20254-20516</t>
+  </si>
+  <si>
+    <t>20521-20789</t>
+  </si>
+  <si>
+    <t>20791-21055</t>
+  </si>
+  <si>
+    <t>21064-21329</t>
+  </si>
+  <si>
+    <t>21330-21599</t>
+  </si>
+  <si>
+    <t>21602-21867</t>
+  </si>
+  <si>
+    <t>21873-22135</t>
+  </si>
+  <si>
+    <t>22140-22409</t>
+  </si>
+  <si>
+    <t>22411-22679</t>
+  </si>
+  <si>
+    <t>22680-22949</t>
+  </si>
+  <si>
+    <t>22951-23219</t>
+  </si>
+  <si>
+    <t>23221-23488</t>
+  </si>
+  <si>
+    <t>23490-23757</t>
+  </si>
+  <si>
+    <t>23763-24028</t>
+  </si>
+  <si>
+    <t>24031-24297</t>
+  </si>
+  <si>
+    <t>24300-24569</t>
+  </si>
+  <si>
+    <t>24571-24838</t>
+  </si>
+  <si>
+    <t>24840-25109</t>
+  </si>
+  <si>
+    <t>25110-25379</t>
+  </si>
+  <si>
+    <t>25380-25649</t>
+  </si>
+  <si>
+    <t>25650-25919</t>
+  </si>
+  <si>
+    <t>25920-26188</t>
+  </si>
+  <si>
+    <t>26193-26457</t>
+  </si>
+  <si>
+    <t>26461-26729</t>
+  </si>
+  <si>
+    <t>26730-26999</t>
+  </si>
+  <si>
+    <t>27000-27269</t>
+  </si>
+  <si>
+    <t>27272-27537</t>
+  </si>
+  <si>
+    <t>27541-27809</t>
+  </si>
+  <si>
+    <t>27811-27934</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1733,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1163,8 +1788,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>DC 5.86 x DC 6.22</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>DC 5.86 x 6.22</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1201,27 +1826,37 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.86 x 6.22'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NDT médio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'5.86 x 6.22'!$A$2:$A$103</c:f>
+              <c:f>'5.86 x 6.22'!$A$2:$A$102</c:f>
               <c:strCache>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
@@ -1532,10 +2167,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'5.86 x 6.22'!$B$2:$B$103</c:f>
+              <c:f>'5.86 x 6.22'!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="101"/>
                 <c:pt idx="0">
                   <c:v>267.51</c:v>
                 </c:pt>
@@ -1842,10 +2477,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8333-4D76-A8F8-253FC86C9A79}"/>
+              <c16:uniqueId val="{00000000-43D8-406F-A057-CC4C856C7093}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1857,12 +2491,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="564283871"/>
-        <c:axId val="564290527"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1021369727"/>
+        <c:axId val="1021370143"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="564283871"/>
+        <c:axId val="1021369727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +2540,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564290527"/>
+        <c:crossAx val="1021370143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1913,7 +2548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564290527"/>
+        <c:axId val="1021370143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +2599,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564283871"/>
+        <c:crossAx val="1021369727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4052,6 +4687,1837 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DC 5.86 x DC 5.86</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5.86 x 5.86'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NDT médio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.86 x 5.86'!$A$2:$A$104</c:f>
+              <c:strCache>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>0-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9-11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21-23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24-26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27-29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30-32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33-35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36-38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39-41</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42-44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45-47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48-50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51-53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54-56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57-59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60-62</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63-65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66-68</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69-71</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72-74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>75-77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78-80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81-83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84-86</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87-89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90-92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>93-95</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>96-98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99-101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>102-104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>105-107</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>108-110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>111-113</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>114-116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>117-119</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120-122</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>123-125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>126-128</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>129-131</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>132-134</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>135-137</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>138-140</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>141-143</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>144-146</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>147-149</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>150-152</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>153-155</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>156-158</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159-161</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>162-164</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>165-167</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>168-170</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>171-173</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174-176</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>177-179</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>180-182</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>183-185</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>186-188</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>189-191</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>192-194</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>195-197</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>198-200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>201-203</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>204-206</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>207-209</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>210-212</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>213-215</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>216-218</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>219-221</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>222-224</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>225-227</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>228-230</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>231-233</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>234-236</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>237-239</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>240-242</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>243-245</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>246-248</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>249-251</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>252-254</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>255-257</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>258-260</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>261-263</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>264-266</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>267-269</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>270-272</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>273-275</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>276-278</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>279-281</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>282-284</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>285-287</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>288-290</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>291-293</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>294-296</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>297-299</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>300-302</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>303-305</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>306-305</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.86 x 5.86'!$B$2:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="103"/>
+                <c:pt idx="0">
+                  <c:v>109.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>149.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>156.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.62</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>159.62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>152.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>161.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>155.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>156.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153.87</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>146.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>149.91</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>136.16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>155.96</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>147.66999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>148.65</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>164.71</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>154.07</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165.94</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159.13999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>153.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>142.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>145.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>138.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>155.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>162.22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>163.06</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>146.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>149.82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>145.87</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>154.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>149.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>157.04</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>153.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>146.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>155.03</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>155.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>148.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>155.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>146.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>151.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>152.86000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>163.16</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>145.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>156.61000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>162.06</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>144.59</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>143.71</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>161.21</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>145.54</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>157.34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>148.82</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>150.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>147.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>156.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>159.58000000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>158.68</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>145.62</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>139.88</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>141.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>152.06</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>159.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>153.31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>146.22</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>158.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>146.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>146.26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>157.94</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>138.57</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>150.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>157.06</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>157.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>143.63</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>148.26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>162.97</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>148.91</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>155.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>145.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>153.74</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>147.1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>158.84</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>151.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>166.84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>156.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>144.85</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>144.35</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>148.87</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>161.79</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>162.96</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>153.15</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>140.25</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>150.13</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>150.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0189-4CF1-A5C7-E1B5DB3998F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1277033391"/>
+        <c:axId val="1277035055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1277033391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277035055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277035055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277033391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>DC 5.86 x DC 10.98</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'5.86 x 10.98'!$A$2:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>1-267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270-536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540-808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>810-1078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1080-1349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1352-1619</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1621-1889</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1890-2159</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2160-2427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2432-2699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2701-2968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2970-3238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3240-3509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3512-3779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3781-4049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4051-4317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4322-4589</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4591-4856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4861-5127</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5130-5399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5400-5668</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5670-5938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5941-6208</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6211-6479</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6481-6749</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6750-7017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7020-7289</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7290-7557</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7562-7828</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7833-8099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8100-8367</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8371-8639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8640-8909</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8912-9178</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9182-9449</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9450-9718</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9722-9989</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9990-10259</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10261-10529</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10530-10798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10802-11069</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11070-11339</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11340-11609</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11611-11879</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11883-12149</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12152-12419</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12421-12688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12690-12959</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12960-13228</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13231-13496</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13500-13769</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13770-14038</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14042-14309</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14310-14576</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14581-14846</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14850-15119</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15120-15388</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15390-15658</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15663-15929</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15930-16197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16201-16468</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16471-16739</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16741-17009</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17011-17278</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17280-17549</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17551-17819</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17821-18089</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18091-18358</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18360-18629</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18631-18898</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18902-19169</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>19173-19439</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19442-19706</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19710-19979</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19980-20247</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>20254-20516</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>20521-20789</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>20791-21055</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>21064-21329</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>21330-21599</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>21602-21867</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>21873-22135</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>22140-22409</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22411-22679</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>22680-22949</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>22951-23219</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>23221-23488</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>23490-23757</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23763-24028</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24031-24297</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24300-24569</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>24571-24838</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>24840-25109</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>25110-25379</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25380-25649</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25650-25919</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25920-26188</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>26193-26457</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26461-26729</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26730-26999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>27000-27269</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27272-27537</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27541-27809</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>27811-27934</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'5.86 x 10.98'!$B$2:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>131.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>148.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>169.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>170.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>159.72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>133.37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>145.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>137.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>148.07</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>144.05000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>148.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>150.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>141.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>155.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>133.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>144.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133.47</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>144.87</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>147.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>151.09</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>152.28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>170.77</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>140.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>154.71</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>153.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>159.35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>136.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137.71</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>146.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>145.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>137.87</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>156.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>129.96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>137.53</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>144.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>146.43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>169.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>145.24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>139.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>159.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>160.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>157.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>149.41</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>143.24</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>144.19</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>134.49</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>141.41999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>166.18</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>151.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>128.07</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>146.87</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>134.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>145.31</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>164.26</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>137.18</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>154.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>132.72</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>128.66</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>160.12</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>132.82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>151.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>138.35</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>122.07</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>155.88</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>153.99</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>128.04</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>171.46</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>154.03</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>148.21</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>135.1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>155.69</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>144.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>152.28</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>134.35</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>122.04</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>148.56</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>144.12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>160.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>137.38</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>150.26</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>150.96</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>173.19</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>147.54</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>128.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>150.12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>160.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>166.11</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>160.07</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>160.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>121.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53D0-43E4-ACC9-C832C7D3DA3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1277031727"/>
+        <c:axId val="1277028815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1277031727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277028815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1277028815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277031727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4172,8 +6638,88 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4281,11 +6827,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4296,11 +6837,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4332,9 +6868,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5694,27 +8227,1033 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E35421C8-5666-4E54-9AD0-B6F29B303A56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4619379E-2BFF-41F1-9981-A95BA977F637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5783,13 +9322,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5797,6 +9336,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D56BFA7-79DB-497D-8EAB-550554660C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35EF868-DC1C-4197-99F0-7AE28C42229D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4EEFF4-DB72-4618-8BED-801A3C89A455}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6116,8 +9737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45111533-F0D8-4E2A-AC2C-0F519570E293}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8959,10 +12580,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F4FB31-C037-48D2-934E-1FB80DE4CDA0}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8971,6 +12592,859 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2">
+        <v>109.83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B3">
+        <v>137.36000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4">
+        <v>149.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5">
+        <v>161.27000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6">
+        <v>141.94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7">
+        <v>156.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8">
+        <v>150.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9">
+        <v>157.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B10">
+        <v>161.05000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11">
+        <v>150.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B12">
+        <v>159.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B13">
+        <v>152.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14">
+        <v>162.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15">
+        <v>161.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16">
+        <v>155.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17">
+        <v>156.41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18">
+        <v>153.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19">
+        <v>146.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20">
+        <v>148.44999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B21">
+        <v>149.91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22">
+        <v>136.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23">
+        <v>155.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B24">
+        <v>147.66999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B25">
+        <v>148.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26">
+        <v>164.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27">
+        <v>153.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B28">
+        <v>154.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>369</v>
+      </c>
+      <c r="B29">
+        <v>165.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B30">
+        <v>159.13999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B31">
+        <v>153.94999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32">
+        <v>142.56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33">
+        <v>145.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B34">
+        <v>148.61000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35">
+        <v>138.41999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36">
+        <v>155.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>377</v>
+      </c>
+      <c r="B37">
+        <v>162.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38">
+        <v>163.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39">
+        <v>146.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40">
+        <v>149.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41">
+        <v>145.87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42">
+        <v>154.63999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43">
+        <v>149.47999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44">
+        <v>157.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>385</v>
+      </c>
+      <c r="B45">
+        <v>153.08000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>386</v>
+      </c>
+      <c r="B46">
+        <v>146.72999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>387</v>
+      </c>
+      <c r="B47">
+        <v>155.03</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48">
+        <v>155.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49">
+        <v>148.41999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>390</v>
+      </c>
+      <c r="B50">
+        <v>155.52000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51">
+        <v>146.02000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>392</v>
+      </c>
+      <c r="B52">
+        <v>151.30000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>393</v>
+      </c>
+      <c r="B53">
+        <v>152.86000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>394</v>
+      </c>
+      <c r="B54">
+        <v>163.16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>395</v>
+      </c>
+      <c r="B55">
+        <v>145.77000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>396</v>
+      </c>
+      <c r="B56">
+        <v>156.61000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>397</v>
+      </c>
+      <c r="B57">
+        <v>162.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>398</v>
+      </c>
+      <c r="B58">
+        <v>144.59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>399</v>
+      </c>
+      <c r="B59">
+        <v>143.71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>400</v>
+      </c>
+      <c r="B60">
+        <v>161.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>401</v>
+      </c>
+      <c r="B61">
+        <v>145.54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>402</v>
+      </c>
+      <c r="B62">
+        <v>157.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>403</v>
+      </c>
+      <c r="B63">
+        <v>148.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>404</v>
+      </c>
+      <c r="B64">
+        <v>150.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B65">
+        <v>147.91999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>406</v>
+      </c>
+      <c r="B66">
+        <v>156.97999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>407</v>
+      </c>
+      <c r="B67">
+        <v>159.58000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68">
+        <v>158.68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>409</v>
+      </c>
+      <c r="B69">
+        <v>145.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70">
+        <v>139.88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71">
+        <v>141.88999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>412</v>
+      </c>
+      <c r="B72">
+        <v>152.06</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>413</v>
+      </c>
+      <c r="B73">
+        <v>159.47999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>414</v>
+      </c>
+      <c r="B74">
+        <v>153.31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75">
+        <v>146.22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>416</v>
+      </c>
+      <c r="B76">
+        <v>158.83000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77">
+        <v>146.47999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78">
+        <v>146.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>419</v>
+      </c>
+      <c r="B79">
+        <v>157.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>420</v>
+      </c>
+      <c r="B80">
+        <v>138.57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81">
+        <v>150.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>422</v>
+      </c>
+      <c r="B82">
+        <v>157.06</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>423</v>
+      </c>
+      <c r="B83">
+        <v>157.05000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>424</v>
+      </c>
+      <c r="B84">
+        <v>143.63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>425</v>
+      </c>
+      <c r="B85">
+        <v>148.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>426</v>
+      </c>
+      <c r="B86">
+        <v>162.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>427</v>
+      </c>
+      <c r="B87">
+        <v>148.91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>428</v>
+      </c>
+      <c r="B88">
+        <v>155.11000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>429</v>
+      </c>
+      <c r="B89">
+        <v>145.77000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>430</v>
+      </c>
+      <c r="B90">
+        <v>153.74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91">
+        <v>147.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>432</v>
+      </c>
+      <c r="B92">
+        <v>158.84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>433</v>
+      </c>
+      <c r="B93">
+        <v>151.47999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>434</v>
+      </c>
+      <c r="B94">
+        <v>166.84</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>435</v>
+      </c>
+      <c r="B95">
+        <v>156.33000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>436</v>
+      </c>
+      <c r="B96">
+        <v>144.85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>437</v>
+      </c>
+      <c r="B97">
+        <v>144.35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>438</v>
+      </c>
+      <c r="B98">
+        <v>148.87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>439</v>
+      </c>
+      <c r="B99">
+        <v>161.79</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>440</v>
+      </c>
+      <c r="B100">
+        <v>162.96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>441</v>
+      </c>
+      <c r="B101">
+        <v>153.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>442</v>
+      </c>
+      <c r="B102">
+        <v>140.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>443</v>
+      </c>
+      <c r="B103">
+        <v>150.13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>444</v>
+      </c>
+      <c r="B104">
+        <v>150.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1A77DB-ED1E-4FD8-912B-B7724CE6C6D1}">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>345</v>
@@ -8979,7 +13453,852 @@
         <v>344</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2">
+        <v>131.83000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3">
+        <v>147.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4">
+        <v>148.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5">
+        <v>140.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6">
+        <v>169.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B7">
+        <v>170.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8">
+        <v>138.44999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B9">
+        <v>125.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10">
+        <v>151.72999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B11">
+        <v>144.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12">
+        <v>156.94999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B13">
+        <v>142.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14">
+        <v>159.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15">
+        <v>133.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16">
+        <v>145.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17">
+        <v>137.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18">
+        <v>148.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19">
+        <v>144.05000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20">
+        <v>148.87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21">
+        <v>151.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22">
+        <v>150.91999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23">
+        <v>141.55000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24">
+        <v>155.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25">
+        <v>133.80000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B26">
+        <v>144.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B27">
+        <v>133.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28">
+        <v>144.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B29">
+        <v>147.11000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B30">
+        <v>151.09</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31">
+        <v>152.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B32">
+        <v>149.19999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B33">
+        <v>170.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B34">
+        <v>140.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B35">
+        <v>154.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B36">
+        <v>153.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B37">
+        <v>159.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B38">
+        <v>136.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B39">
+        <v>137.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B40">
+        <v>146.88999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B41">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B42">
+        <v>145.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B43">
+        <v>137.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B44">
+        <v>156.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B45">
+        <v>129.96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B46">
+        <v>137.53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B47">
+        <v>144.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B48">
+        <v>146.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B49">
+        <v>169.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B50">
+        <v>145.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B51">
+        <v>139.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B52">
+        <v>159.55000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B53">
+        <v>160.88999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B54">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B55">
+        <v>149.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B56">
+        <v>143.24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B57">
+        <v>144.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B58">
+        <v>134.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B59">
+        <v>141.41999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B60">
+        <v>166.18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B61">
+        <v>151.22999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B62">
+        <v>128.07</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B63">
+        <v>146.87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B64">
+        <v>134.33000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B65">
+        <v>145.31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B66">
+        <v>164.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B67">
+        <v>137.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B68">
+        <v>146.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B69">
+        <v>154.91999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B70">
+        <v>132.72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B71">
+        <v>128.66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B72">
+        <v>160.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B73">
+        <v>132.82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B74">
+        <v>151.44999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B75">
+        <v>138.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B76">
+        <v>122.07</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B77">
+        <v>155.88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B78">
+        <v>153.99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B79">
+        <v>128.04</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B80">
+        <v>171.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B81">
+        <v>154.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B82">
+        <v>148.21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B83">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B84">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B85">
+        <v>155.69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B86">
+        <v>144.16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B87">
+        <v>152.28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B88">
+        <v>134.35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89">
+        <v>122.04</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B90">
+        <v>148.56</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B91">
+        <v>144.12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B92">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B93">
+        <v>137.38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B94">
+        <v>150.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B95">
+        <v>150.96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B96">
+        <v>150.19999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B97">
+        <v>173.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B98">
+        <v>147.54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B99">
+        <v>128.47999999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B100">
+        <v>150.12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B101">
+        <v>160.94999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B102">
+        <v>166.11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B103">
+        <v>160.07</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B104">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B105">
+        <v>121.55</v>
+      </c>
+    </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB29AEC6-516A-4809-BFC1-4FC2322ED700}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>